--- a/data-raw/gender_role_items.xlsx
+++ b/data-raw/gender_role_items.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredsolt/Documents/Projects/dcpo_gender_roles/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{099AD9DC-B9B3-B943-A8B6-F9323C8060B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A8C3C-647E-AF48-991B-F375F2E73FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="3540" windowWidth="20740" windowHeight="11280" tabRatio="659" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8700" yWindow="-28340" windowWidth="32080" windowHeight="28340" tabRatio="659" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Surveys" sheetId="5" r:id="rId1"/>
     <sheet name="Traditional Gender" sheetId="2" r:id="rId2"/>
     <sheet name="Question classification" sheetId="7" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Traditional Gender'!$A$1:$G$346</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +47,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -53,22 +56,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Variable name is "Woman maintaining her family."</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Variable name is "Woman maintaining her family."</t>
         </r>
       </text>
     </comment>
-    <comment ref="E67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="F67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -77,22 +89,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Again, 2002 LB dose not have this variable in its dataset. I cannot verify how this variable was coded exactly.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Again, 2002 LB dose not have this variable in its dataset. I cannot verify how this variable was coded exactly.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -101,12 +122,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Merged dataset does not contain these variables (vb51 &amp; vb52). But, 2012_US dataset has them. </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Merged dataset does not contain these variables (vb51 &amp; vb52). But, 2012_US dataset has them. </t>
         </r>
       </text>
     </comment>
@@ -116,7 +146,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -125,22 +155,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-I cannot identify the name of the variable. The merged dta file I got does not have this question. But the ABS wave core questionaire has it.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>I cannot identify the name of the variable. The merged dta file I got does not have this question. But the ABS wave core questionaire has it.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E163" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="F163" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -149,13 +188,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Coding is not identifiable. I assume it is coded following the ABS wave2.
-&amp; No following questions for second and thrid options</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Coding is not identifiable. I assume it is coded following the ABS wave2.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&amp; No following questions for second and thrid options</t>
         </r>
       </text>
     </comment>
@@ -165,7 +222,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -174,22 +231,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Not the exact same wording / but aksed several times in other surveys</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not the exact same wording / but aksed several times in other surveys</t>
         </r>
       </text>
     </comment>
-    <comment ref="E241" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="F241" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -198,12 +264,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-NSSS 1984 (1st wave) asked the same question, but the coding is different.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NSSS 1984 (1st wave) asked the same question, but the coding is different.</t>
         </r>
       </text>
     </comment>
@@ -213,7 +288,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -222,12 +297,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-NSSS 1993 includes: the panel survey of NSSS 1989-90 Family survey &amp; NSSS 1993 Life Style survey! This is why we have the exact same question like this in a single codebook.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NSSS 1993 includes: the panel survey of NSSS 1989-90 Family survey &amp; NSSS 1993 Life Style survey! This is why we have the exact same question like this in a single codebook.</t>
         </r>
       </text>
     </comment>
@@ -237,7 +321,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -246,12 +330,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Kinda complecated question. It is asking the past experience. But, in a speical case, it is asking about the approval of women working!</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kinda complecated question. It is asking the past experience. But, in a speical case, it is asking about the approval of women working!</t>
         </r>
       </text>
     </comment>
@@ -260,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="1006">
   <si>
     <t>Survey</t>
   </si>
@@ -3424,6 +3517,42 @@
   </si>
   <si>
     <t>Traditional Gender</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>work_suffers5</t>
+  </si>
+  <si>
+    <t>work_happier5</t>
+  </si>
+  <si>
+    <t>work_before_kids3</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>work2</t>
+  </si>
+  <si>
+    <t>work_nontrad5</t>
+  </si>
+  <si>
+    <t>work_approve5</t>
+  </si>
+  <si>
+    <t>wants_single_mom2</t>
+  </si>
+  <si>
+    <t>neighbor_single_mom2</t>
+  </si>
+  <si>
+    <t>approve_single_mom5</t>
+  </si>
+  <si>
+    <t>approve_single_dad5</t>
   </si>
 </sst>
 </file>
@@ -3788,19 +3917,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -3855,6 +3971,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4010,8 +4139,8 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4094,7 +4223,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4169,22 +4298,22 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4193,13 +4322,13 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4226,10 +4355,10 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4266,8 +4395,8 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4277,8 +4406,8 @@
     <xf numFmtId="0" fontId="50" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4293,7 +4422,7 @@
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4313,19 +4442,19 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4431,7 +4560,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4442,7 +4571,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4504,7 +4633,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4902,8 +5031,8 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6223,13 +6352,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F346"/>
+  <dimension ref="A1:G346"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B330" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B347" sqref="B347"/>
+      <selection pane="bottomRight" activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6237,13 +6366,13 @@
     <col min="1" max="1" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="106" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="63" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="101" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="4" max="5" width="16.33203125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="101" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6256,14 +6385,17 @@
       <c r="D1" s="111" t="s">
         <v>485</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="111" t="s">
+        <v>994</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>112</v>
       </c>
@@ -6276,14 +6408,14 @@
       <c r="D2" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>112</v>
       </c>
@@ -6296,14 +6428,15 @@
       <c r="D3" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>112</v>
       </c>
@@ -6316,14 +6449,15 @@
       <c r="D4" s="74" t="s">
         <v>554</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>112</v>
       </c>
@@ -6336,14 +6470,15 @@
       <c r="D5" s="74" t="s">
         <v>489</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="74"/>
+      <c r="F5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>112</v>
       </c>
@@ -6356,14 +6491,17 @@
       <c r="D6" s="63" t="s">
         <v>614</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="63" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>112</v>
       </c>
@@ -6376,14 +6514,15 @@
       <c r="D7" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
@@ -6396,14 +6535,15 @@
       <c r="D8" s="74" t="s">
         <v>544</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="74"/>
+      <c r="F8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>112</v>
       </c>
@@ -6416,14 +6556,15 @@
       <c r="D9" s="74" t="s">
         <v>617</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="74"/>
+      <c r="F9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="G9" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>112</v>
       </c>
@@ -6436,14 +6577,15 @@
       <c r="D10" s="74" t="s">
         <v>618</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="74"/>
+      <c r="F10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>112</v>
       </c>
@@ -6456,14 +6598,15 @@
       <c r="D11" s="74" t="s">
         <v>619</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="74"/>
+      <c r="F11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>112</v>
       </c>
@@ -6476,14 +6619,15 @@
       <c r="D12" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="63"/>
+      <c r="F12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>112</v>
       </c>
@@ -6496,14 +6640,15 @@
       <c r="D13" s="74" t="s">
         <v>620</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="74"/>
+      <c r="F13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>112</v>
       </c>
@@ -6516,14 +6661,15 @@
       <c r="D14" s="74" t="s">
         <v>621</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="74"/>
+      <c r="F14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>112</v>
       </c>
@@ -6536,14 +6682,15 @@
       <c r="D15" s="74" t="s">
         <v>617</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="74"/>
+      <c r="F15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>112</v>
       </c>
@@ -6556,14 +6703,15 @@
       <c r="D16" s="74" t="s">
         <v>622</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="74"/>
+      <c r="F16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>112</v>
       </c>
@@ -6576,14 +6724,15 @@
       <c r="D17" s="74" t="s">
         <v>622</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="74"/>
+      <c r="F17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>112</v>
       </c>
@@ -6596,14 +6745,15 @@
       <c r="D18" s="74" t="s">
         <v>622</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="74"/>
+      <c r="F18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="G18" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>112</v>
       </c>
@@ -6616,14 +6766,15 @@
       <c r="D19" s="74" t="s">
         <v>622</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="74"/>
+      <c r="F19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="G19" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>112</v>
       </c>
@@ -6636,14 +6787,15 @@
       <c r="D20" s="74" t="s">
         <v>622</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="74"/>
+      <c r="F20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="G20" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>112</v>
       </c>
@@ -6656,14 +6808,15 @@
       <c r="D21" s="74" t="s">
         <v>622</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="74"/>
+      <c r="F21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="G21" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>112</v>
       </c>
@@ -6676,14 +6829,15 @@
       <c r="D22" s="74" t="s">
         <v>622</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="74"/>
+      <c r="F22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="G22" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>112</v>
       </c>
@@ -6696,14 +6850,15 @@
       <c r="D23" s="74" t="s">
         <v>622</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="74"/>
+      <c r="F23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="G23" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>112</v>
       </c>
@@ -6716,14 +6871,15 @@
       <c r="D24" s="74" t="s">
         <v>622</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="74"/>
+      <c r="F24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="G24" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>112</v>
       </c>
@@ -6736,14 +6892,17 @@
       <c r="D25" s="74" t="s">
         <v>623</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="74" t="s">
+        <v>998</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="G25" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>112</v>
       </c>
@@ -6756,14 +6915,15 @@
       <c r="D26" s="74" t="s">
         <v>624</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="74"/>
+      <c r="F26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="G26" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>112</v>
       </c>
@@ -6776,14 +6936,15 @@
       <c r="D27" s="74" t="s">
         <v>625</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="74"/>
+      <c r="F27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>112</v>
       </c>
@@ -6796,14 +6957,15 @@
       <c r="D28" s="74" t="s">
         <v>626</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="74"/>
+      <c r="F28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="G28" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>112</v>
       </c>
@@ -6816,14 +6978,15 @@
       <c r="D29" s="74" t="s">
         <v>626</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="74"/>
+      <c r="F29" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>112</v>
       </c>
@@ -6836,14 +6999,15 @@
       <c r="D30" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="63"/>
+      <c r="F30" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="G30" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>112</v>
       </c>
@@ -6856,14 +7020,15 @@
       <c r="D31" s="74" t="s">
         <v>627</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="74"/>
+      <c r="F31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="G31" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>112</v>
       </c>
@@ -6876,14 +7041,15 @@
       <c r="D32" s="74" t="s">
         <v>629</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="74"/>
+      <c r="F32" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="G32" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>112</v>
       </c>
@@ -6896,14 +7062,15 @@
       <c r="D33" s="74" t="s">
         <v>629</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="74"/>
+      <c r="F33" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="G33" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>112</v>
       </c>
@@ -6916,14 +7083,15 @@
       <c r="D34" s="74" t="s">
         <v>629</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="74"/>
+      <c r="F34" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="G34" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>112</v>
       </c>
@@ -6936,14 +7104,15 @@
       <c r="D35" s="74" t="s">
         <v>629</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="74"/>
+      <c r="F35" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="G35" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>112</v>
       </c>
@@ -6956,14 +7125,15 @@
       <c r="D36" s="74" t="s">
         <v>630</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="74"/>
+      <c r="F36" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="G36" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>111</v>
       </c>
@@ -6976,14 +7146,14 @@
       <c r="D37" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="F37" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="169" t="s">
+      <c r="G37" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>111</v>
       </c>
@@ -6996,14 +7166,14 @@
       <c r="D38" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="F38" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="169" t="s">
+      <c r="G38" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>111</v>
       </c>
@@ -7016,14 +7186,17 @@
       <c r="D39" s="63" t="s">
         <v>614</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="63" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="169" t="s">
+      <c r="G39" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>111</v>
       </c>
@@ -7036,14 +7209,14 @@
       <c r="D40" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="F40" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F40" s="169" t="s">
+      <c r="G40" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>111</v>
       </c>
@@ -7056,14 +7229,14 @@
       <c r="D41" s="63" t="s">
         <v>489</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="169" t="s">
+      <c r="G41" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>111</v>
       </c>
@@ -7076,14 +7249,14 @@
       <c r="D42" s="63" t="s">
         <v>489</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="169" t="s">
+      <c r="G42" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>111</v>
       </c>
@@ -7096,14 +7269,17 @@
       <c r="D43" s="63" t="s">
         <v>614</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="63" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="169" t="s">
+      <c r="G43" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>111</v>
       </c>
@@ -7116,14 +7292,14 @@
       <c r="D44" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="169" t="s">
+      <c r="G44" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>111</v>
       </c>
@@ -7136,14 +7312,15 @@
       <c r="D45" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="64"/>
+      <c r="F45" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="169" t="s">
+      <c r="G45" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>111</v>
       </c>
@@ -7156,14 +7333,14 @@
       <c r="D46" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="169" t="s">
+      <c r="G46" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>111</v>
       </c>
@@ -7176,14 +7353,14 @@
       <c r="D47" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F47" s="169" t="s">
+      <c r="G47" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>111</v>
       </c>
@@ -7196,14 +7373,14 @@
       <c r="D48" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="169" t="s">
+      <c r="G48" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>111</v>
       </c>
@@ -7216,14 +7393,14 @@
       <c r="D49" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F49" s="169" t="s">
+      <c r="G49" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>111</v>
       </c>
@@ -7236,14 +7413,14 @@
       <c r="D50" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="F50" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F50" s="169" t="s">
+      <c r="G50" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>111</v>
       </c>
@@ -7256,14 +7433,14 @@
       <c r="D51" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="F51" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="169" t="s">
+      <c r="G51" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>111</v>
       </c>
@@ -7276,14 +7453,14 @@
       <c r="D52" s="63" t="s">
         <v>631</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="169" t="s">
+      <c r="G52" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>111</v>
       </c>
@@ -7296,14 +7473,14 @@
       <c r="D53" s="63" t="s">
         <v>631</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="169" t="s">
+      <c r="G53" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>111</v>
       </c>
@@ -7316,14 +7493,14 @@
       <c r="D54" s="63" t="s">
         <v>632</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="169" t="s">
+      <c r="G54" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>111</v>
       </c>
@@ -7336,14 +7513,14 @@
       <c r="D55" s="63" t="s">
         <v>626</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="F55" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F55" s="169" t="s">
+      <c r="G55" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>134</v>
       </c>
@@ -7356,14 +7533,14 @@
       <c r="D56" s="63" t="s">
         <v>626</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="F56" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="G56" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>145</v>
       </c>
@@ -7376,14 +7553,14 @@
       <c r="D57" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="F57" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="G57" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>145</v>
       </c>
@@ -7396,14 +7573,14 @@
       <c r="D58" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="F58" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="G58" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>145</v>
       </c>
@@ -7416,14 +7593,14 @@
       <c r="D59" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="F59" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="G59" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>145</v>
       </c>
@@ -7436,14 +7613,14 @@
       <c r="D60" s="63" t="s">
         <v>634</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="F60" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="G60" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>145</v>
       </c>
@@ -7456,14 +7633,14 @@
       <c r="D61" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="F61" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="G61" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>145</v>
       </c>
@@ -7476,14 +7653,14 @@
       <c r="D62" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="F62" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="G62" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>145</v>
       </c>
@@ -7496,14 +7673,15 @@
       <c r="D63" s="74" t="s">
         <v>617</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="74"/>
+      <c r="F63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="G63" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>145</v>
       </c>
@@ -7516,14 +7694,14 @@
       <c r="D64" s="63" t="s">
         <v>631</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="F64" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="G64" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>145</v>
       </c>
@@ -7536,14 +7714,14 @@
       <c r="D65" s="63" t="s">
         <v>638</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="F65" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="G65" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>145</v>
       </c>
@@ -7556,14 +7734,14 @@
       <c r="D66" s="63" t="s">
         <v>638</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="F66" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="G66" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>145</v>
       </c>
@@ -7576,14 +7754,14 @@
       <c r="D67" s="63" t="s">
         <v>639</v>
       </c>
-      <c r="E67" s="80" t="s">
+      <c r="F67" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="G67" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>145</v>
       </c>
@@ -7596,14 +7774,14 @@
       <c r="D68" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="G68" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>145</v>
       </c>
@@ -7616,14 +7794,14 @@
       <c r="D69" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="F69" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="G69" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>145</v>
       </c>
@@ -7636,14 +7814,14 @@
       <c r="D70" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="F70" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="G70" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>145</v>
       </c>
@@ -7656,14 +7834,14 @@
       <c r="D71" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="F71" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="G71" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>145</v>
       </c>
@@ -7676,14 +7854,14 @@
       <c r="D72" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="F72" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="G72" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>145</v>
       </c>
@@ -7696,14 +7874,14 @@
       <c r="D73" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="F73" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="G73" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>145</v>
       </c>
@@ -7716,14 +7894,14 @@
       <c r="D74" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="G74" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>145</v>
       </c>
@@ -7736,14 +7914,14 @@
       <c r="D75" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="F75" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="G75" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>145</v>
       </c>
@@ -7756,14 +7934,14 @@
       <c r="D76" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="F76" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F76" s="17" t="s">
+      <c r="G76" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>145</v>
       </c>
@@ -7776,14 +7954,14 @@
       <c r="D77" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="F77" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F77" s="17" t="s">
+      <c r="G77" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>145</v>
       </c>
@@ -7796,14 +7974,14 @@
       <c r="D78" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="G78" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>145</v>
       </c>
@@ -7816,14 +7994,14 @@
       <c r="D79" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F79" s="17" t="s">
+      <c r="G79" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>145</v>
       </c>
@@ -7836,14 +8014,14 @@
       <c r="D80" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="F80" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F80" s="17" t="s">
+      <c r="G80" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>145</v>
       </c>
@@ -7856,14 +8034,14 @@
       <c r="D81" s="63" t="s">
         <v>640</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="F81" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="G81" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>145</v>
       </c>
@@ -7876,14 +8054,14 @@
       <c r="D82" s="63" t="s">
         <v>640</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F82" s="17" t="s">
+      <c r="G82" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>145</v>
       </c>
@@ -7896,14 +8074,14 @@
       <c r="D83" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="F83" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="F83" s="17" t="s">
+      <c r="G83" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>214</v>
       </c>
@@ -7916,14 +8094,14 @@
       <c r="D84" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F84" s="19" t="s">
+      <c r="G84" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>214</v>
       </c>
@@ -7936,14 +8114,14 @@
       <c r="D85" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F85" s="19" t="s">
+      <c r="G85" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>214</v>
       </c>
@@ -7956,14 +8134,15 @@
       <c r="D86" s="122" t="s">
         <v>632</v>
       </c>
-      <c r="E86" s="80" t="s">
+      <c r="E86" s="122"/>
+      <c r="F86" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="F86" s="19" t="s">
+      <c r="G86" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>214</v>
       </c>
@@ -7976,14 +8155,15 @@
       <c r="D87" s="122" t="s">
         <v>618</v>
       </c>
-      <c r="E87" s="80" t="s">
+      <c r="E87" s="122"/>
+      <c r="F87" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="F87" s="19" t="s">
+      <c r="G87" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>214</v>
       </c>
@@ -7996,14 +8176,14 @@
       <c r="D88" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="F88" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F88" s="19" t="s">
+      <c r="G88" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
         <v>214</v>
       </c>
@@ -8016,14 +8196,14 @@
       <c r="D89" s="63" t="s">
         <v>640</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="F89" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="G89" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>214</v>
       </c>
@@ -8036,14 +8216,14 @@
       <c r="D90" s="63" t="s">
         <v>640</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="F90" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F90" s="19" t="s">
+      <c r="G90" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>239</v>
       </c>
@@ -8056,14 +8236,14 @@
       <c r="D91" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="F91" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F91" s="19" t="s">
+      <c r="G91" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>239</v>
       </c>
@@ -8076,14 +8256,14 @@
       <c r="D92" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="F92" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F92" s="19" t="s">
+      <c r="G92" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>239</v>
       </c>
@@ -8096,14 +8276,14 @@
       <c r="D93" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="F93" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="F93" s="19" t="s">
+      <c r="G93" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
         <v>239</v>
       </c>
@@ -8116,14 +8296,14 @@
       <c r="D94" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="F94" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F94" s="19" t="s">
+      <c r="G94" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>239</v>
       </c>
@@ -8136,14 +8316,14 @@
       <c r="D95" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="F95" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F95" s="19" t="s">
+      <c r="G95" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>239</v>
       </c>
@@ -8156,14 +8336,14 @@
       <c r="D96" s="63" t="s">
         <v>538</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="F96" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="G96" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>332</v>
       </c>
@@ -8176,14 +8356,14 @@
       <c r="D97" s="63" t="s">
         <v>606</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="F97" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="G97" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
         <v>336</v>
       </c>
@@ -8196,14 +8376,14 @@
       <c r="D98" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="F98" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="G98" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>336</v>
       </c>
@@ -8216,14 +8396,14 @@
       <c r="D99" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="F99" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F99" s="20" t="s">
+      <c r="G99" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>336</v>
       </c>
@@ -8236,14 +8416,17 @@
       <c r="D100" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="63" t="s">
+        <v>995</v>
+      </c>
+      <c r="F100" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F100" s="20" t="s">
+      <c r="G100" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>336</v>
       </c>
@@ -8256,14 +8439,17 @@
       <c r="D101" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="63" t="s">
+        <v>996</v>
+      </c>
+      <c r="F101" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F101" s="20" t="s">
+      <c r="G101" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>336</v>
       </c>
@@ -8276,14 +8462,14 @@
       <c r="D102" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="F102" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F102" s="20" t="s">
+      <c r="G102" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>336</v>
       </c>
@@ -8296,14 +8482,14 @@
       <c r="D103" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="F103" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="G103" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>336</v>
       </c>
@@ -8316,14 +8502,14 @@
       <c r="D104" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="F104" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="G104" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>336</v>
       </c>
@@ -8336,14 +8522,14 @@
       <c r="D105" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="F105" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="G105" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>336</v>
       </c>
@@ -8356,14 +8542,14 @@
       <c r="D106" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="F106" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F106" s="20" t="s">
+      <c r="G106" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>336</v>
       </c>
@@ -8376,14 +8562,17 @@
       <c r="D107" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="63" t="s">
+        <v>997</v>
+      </c>
+      <c r="F107" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="G107" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
         <v>336</v>
       </c>
@@ -8396,14 +8585,14 @@
       <c r="D108" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="F108" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F108" s="20" t="s">
+      <c r="G108" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>336</v>
       </c>
@@ -8416,14 +8605,14 @@
       <c r="D109" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="F109" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F109" s="20" t="s">
+      <c r="G109" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>336</v>
       </c>
@@ -8436,14 +8625,14 @@
       <c r="D110" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="F110" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F110" s="20" t="s">
+      <c r="G110" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>336</v>
       </c>
@@ -8456,14 +8645,14 @@
       <c r="D111" s="63" t="s">
         <v>641</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="F111" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="F111" s="20" t="s">
+      <c r="G111" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>336</v>
       </c>
@@ -8476,14 +8665,14 @@
       <c r="D112" s="63" t="s">
         <v>641</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="F112" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="F112" s="20" t="s">
+      <c r="G112" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>336</v>
       </c>
@@ -8496,14 +8685,17 @@
       <c r="D113" s="63" t="s">
         <v>614</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="63" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F113" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F113" s="20" t="s">
+      <c r="G113" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>336</v>
       </c>
@@ -8516,14 +8708,17 @@
       <c r="D114" s="63" t="s">
         <v>614</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="63" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F114" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F114" s="20" t="s">
+      <c r="G114" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>336</v>
       </c>
@@ -8536,14 +8731,14 @@
       <c r="D115" s="63" t="s">
         <v>641</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="F115" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="F115" s="20" t="s">
+      <c r="G115" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>336</v>
       </c>
@@ -8556,14 +8751,14 @@
       <c r="D116" s="63" t="s">
         <v>641</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="F116" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="F116" s="20" t="s">
+      <c r="G116" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="22" t="s">
         <v>372</v>
       </c>
@@ -8576,14 +8771,14 @@
       <c r="D117" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E117" s="23" t="s">
+      <c r="F117" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="F117" s="20" t="s">
+      <c r="G117" s="20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="22" t="s">
         <v>372</v>
       </c>
@@ -8596,14 +8791,14 @@
       <c r="D118" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E118" s="23" t="s">
+      <c r="F118" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="F118" s="20" t="s">
+      <c r="G118" s="20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A119" s="24" t="s">
         <v>377</v>
       </c>
@@ -8616,14 +8811,14 @@
       <c r="D119" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="F119" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F119" s="20" t="s">
+      <c r="G119" s="20" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A120" s="24" t="s">
         <v>377</v>
       </c>
@@ -8636,14 +8831,17 @@
       <c r="D120" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E120" s="26" t="s">
+      <c r="E120" s="63" t="s">
+        <v>995</v>
+      </c>
+      <c r="F120" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F120" s="20" t="s">
+      <c r="G120" s="20" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="25" t="s">
         <v>379</v>
       </c>
@@ -8656,14 +8854,14 @@
       <c r="D121" s="63" t="s">
         <v>606</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="F121" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="F121" s="20" t="s">
+      <c r="G121" s="20" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A122" s="27" t="s">
         <v>388</v>
       </c>
@@ -8676,14 +8874,14 @@
       <c r="D122" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E122" s="81" t="s">
+      <c r="F122" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="G122" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" s="27" t="s">
         <v>388</v>
       </c>
@@ -8696,14 +8894,14 @@
       <c r="D123" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E123" s="81" t="s">
+      <c r="F123" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F123" s="20" t="s">
+      <c r="G123" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A124" s="27" t="s">
         <v>388</v>
       </c>
@@ -8716,14 +8914,17 @@
       <c r="D124" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E124" s="81" t="s">
+      <c r="E124" s="63" t="s">
+        <v>995</v>
+      </c>
+      <c r="F124" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F124" s="20" t="s">
+      <c r="G124" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A125" s="27" t="s">
         <v>388</v>
       </c>
@@ -8736,14 +8937,14 @@
       <c r="D125" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E125" s="81" t="s">
+      <c r="F125" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F125" s="20" t="s">
+      <c r="G125" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="27" t="s">
         <v>388</v>
       </c>
@@ -8756,14 +8957,14 @@
       <c r="D126" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="E126" s="81" t="s">
+      <c r="F126" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F126" s="20" t="s">
+      <c r="G126" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A127" s="27" t="s">
         <v>388</v>
       </c>
@@ -8776,14 +8977,14 @@
       <c r="D127" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E127" s="81" t="s">
+      <c r="F127" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F127" s="20" t="s">
+      <c r="G127" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A128" s="27" t="s">
         <v>388</v>
       </c>
@@ -8796,14 +8997,14 @@
       <c r="D128" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E128" s="81" t="s">
+      <c r="F128" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F128" s="20" t="s">
+      <c r="G128" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="27" t="s">
         <v>388</v>
       </c>
@@ -8816,14 +9017,14 @@
       <c r="D129" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="E129" s="81" t="s">
+      <c r="F129" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F129" s="20" t="s">
+      <c r="G129" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
         <v>388</v>
       </c>
@@ -8836,14 +9037,14 @@
       <c r="D130" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E130" s="81" t="s">
+      <c r="F130" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F130" s="20" t="s">
+      <c r="G130" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
         <v>388</v>
       </c>
@@ -8856,14 +9057,17 @@
       <c r="D131" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E131" s="81" t="s">
+      <c r="E131" s="63" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F131" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F131" s="20" t="s">
+      <c r="G131" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A132" s="27" t="s">
         <v>388</v>
       </c>
@@ -8876,14 +9080,14 @@
       <c r="D132" s="63" t="s">
         <v>643</v>
       </c>
-      <c r="E132" s="81" t="s">
+      <c r="F132" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F132" s="20" t="s">
+      <c r="G132" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="27" t="s">
         <v>388</v>
       </c>
@@ -8896,14 +9100,17 @@
       <c r="D133" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E133" s="81" t="s">
+      <c r="E133" s="63" t="s">
+        <v>997</v>
+      </c>
+      <c r="F133" s="81" t="s">
         <v>352</v>
       </c>
-      <c r="F133" s="20" t="s">
+      <c r="G133" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="27" t="s">
         <v>388</v>
       </c>
@@ -8916,14 +9123,14 @@
       <c r="D134" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E134" s="81" t="s">
+      <c r="F134" s="81" t="s">
         <v>352</v>
       </c>
-      <c r="F134" s="20" t="s">
+      <c r="G134" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="27" t="s">
         <v>388</v>
       </c>
@@ -8936,14 +9143,14 @@
       <c r="D135" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E135" s="81" t="s">
+      <c r="F135" s="81" t="s">
         <v>352</v>
       </c>
-      <c r="F135" s="20" t="s">
+      <c r="G135" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="27" t="s">
         <v>388</v>
       </c>
@@ -8956,14 +9163,14 @@
       <c r="D136" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E136" s="81" t="s">
+      <c r="F136" s="81" t="s">
         <v>352</v>
       </c>
-      <c r="F136" s="20" t="s">
+      <c r="G136" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="28" t="s">
         <v>388</v>
       </c>
@@ -8976,14 +9183,14 @@
       <c r="D137" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E137" s="29" t="s">
+      <c r="F137" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F137" s="20" t="s">
+      <c r="G137" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A138" s="30" t="s">
         <v>396</v>
       </c>
@@ -8996,14 +9203,14 @@
       <c r="D138" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E138" s="82" t="s">
+      <c r="F138" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="F138" s="20" t="s">
+      <c r="G138" s="20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A139" s="30" t="s">
         <v>396</v>
       </c>
@@ -9016,14 +9223,17 @@
       <c r="D139" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E139" s="82" t="s">
+      <c r="E139" s="63" t="s">
+        <v>995</v>
+      </c>
+      <c r="F139" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="F139" s="20" t="s">
+      <c r="G139" s="20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A140" s="31" t="s">
         <v>399</v>
       </c>
@@ -9036,14 +9246,14 @@
       <c r="D140" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E140" s="32" t="s">
+      <c r="F140" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F140" s="35" t="s">
+      <c r="G140" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A141" s="31" t="s">
         <v>399</v>
       </c>
@@ -9056,14 +9266,14 @@
       <c r="D141" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E141" s="32" t="s">
+      <c r="F141" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F141" s="35" t="s">
+      <c r="G141" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A142" s="31" t="s">
         <v>399</v>
       </c>
@@ -9076,14 +9286,17 @@
       <c r="D142" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E142" s="32" t="s">
+      <c r="E142" s="63" t="s">
+        <v>995</v>
+      </c>
+      <c r="F142" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F142" s="35" t="s">
+      <c r="G142" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A143" s="31" t="s">
         <v>399</v>
       </c>
@@ -9096,14 +9309,14 @@
       <c r="D143" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E143" s="32" t="s">
+      <c r="F143" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F143" s="35" t="s">
+      <c r="G143" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="31" t="s">
         <v>399</v>
       </c>
@@ -9116,14 +9329,14 @@
       <c r="D144" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="E144" s="32" t="s">
+      <c r="F144" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F144" s="35" t="s">
+      <c r="G144" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="31" t="s">
         <v>399</v>
       </c>
@@ -9136,14 +9349,14 @@
       <c r="D145" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E145" s="32" t="s">
+      <c r="F145" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F145" s="35" t="s">
+      <c r="G145" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="31" t="s">
         <v>399</v>
       </c>
@@ -9156,14 +9369,14 @@
       <c r="D146" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="E146" s="32" t="s">
+      <c r="F146" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F146" s="35" t="s">
+      <c r="G146" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A147" s="31" t="s">
         <v>399</v>
       </c>
@@ -9176,14 +9389,14 @@
       <c r="D147" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E147" s="32" t="s">
+      <c r="F147" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F147" s="35" t="s">
+      <c r="G147" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A148" s="31" t="s">
         <v>399</v>
       </c>
@@ -9196,14 +9409,14 @@
       <c r="D148" s="63" t="s">
         <v>631</v>
       </c>
-      <c r="E148" s="32" t="s">
+      <c r="F148" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F148" s="35" t="s">
+      <c r="G148" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A149" s="31" t="s">
         <v>399</v>
       </c>
@@ -9216,14 +9429,14 @@
       <c r="D149" s="63" t="s">
         <v>631</v>
       </c>
-      <c r="E149" s="32" t="s">
+      <c r="F149" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F149" s="35" t="s">
+      <c r="G149" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="31" t="s">
         <v>399</v>
       </c>
@@ -9236,14 +9449,17 @@
       <c r="D150" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E150" s="32" t="s">
+      <c r="E150" s="63" t="s">
+        <v>997</v>
+      </c>
+      <c r="F150" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="F150" s="35" t="s">
+      <c r="G150" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="31" t="s">
         <v>399</v>
       </c>
@@ -9256,14 +9472,14 @@
       <c r="D151" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E151" s="32" t="s">
+      <c r="F151" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="F151" s="35" t="s">
+      <c r="G151" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="31" t="s">
         <v>399</v>
       </c>
@@ -9276,14 +9492,14 @@
       <c r="D152" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E152" s="32" t="s">
+      <c r="F152" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="F152" s="35" t="s">
+      <c r="G152" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="31" t="s">
         <v>399</v>
       </c>
@@ -9296,14 +9512,14 @@
       <c r="D153" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E153" s="32" t="s">
+      <c r="F153" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="F153" s="35" t="s">
+      <c r="G153" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="31" t="s">
         <v>399</v>
       </c>
@@ -9313,14 +9529,14 @@
       <c r="C154" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E154" s="32" t="s">
+      <c r="F154" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F154" s="35" t="s">
+      <c r="G154" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="31" t="s">
         <v>399</v>
       </c>
@@ -9333,14 +9549,14 @@
       <c r="D155" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E155" s="32" t="s">
+      <c r="F155" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="F155" s="35" t="s">
+      <c r="G155" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A156" s="36" t="s">
         <v>403</v>
       </c>
@@ -9353,14 +9569,14 @@
       <c r="D156" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E156" s="37" t="s">
+      <c r="F156" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="F156" s="21" t="s">
+      <c r="G156" s="21" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A157" s="36" t="s">
         <v>404</v>
       </c>
@@ -9373,14 +9589,14 @@
       <c r="D157" s="63" t="s">
         <v>606</v>
       </c>
-      <c r="E157" s="37" t="s">
+      <c r="F157" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="F157" s="20" t="s">
+      <c r="G157" s="20" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="45" t="s">
         <v>410</v>
       </c>
@@ -9393,14 +9609,14 @@
       <c r="D158" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E158" s="83" t="s">
+      <c r="F158" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="44" t="s">
+      <c r="G158" s="44" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="45" t="s">
         <v>412</v>
       </c>
@@ -9413,14 +9629,15 @@
       <c r="D159" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E159" s="47" t="s">
+      <c r="E159" s="63"/>
+      <c r="F159" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="F159" s="44" t="s">
+      <c r="G159" s="44" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="45" t="s">
         <v>412</v>
       </c>
@@ -9433,14 +9650,15 @@
       <c r="D160" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E160" s="47" t="s">
+      <c r="E160" s="63"/>
+      <c r="F160" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="F160" s="44" t="s">
+      <c r="G160" s="44" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="45" t="s">
         <v>412</v>
       </c>
@@ -9453,14 +9671,15 @@
       <c r="D161" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E161" s="47" t="s">
+      <c r="E161" s="63"/>
+      <c r="F161" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="F161" s="44" t="s">
+      <c r="G161" s="44" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A162" s="45" t="s">
         <v>413</v>
       </c>
@@ -9473,14 +9692,14 @@
       <c r="D162" s="63" t="s">
         <v>644</v>
       </c>
-      <c r="E162" s="47" t="s">
+      <c r="F162" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F162" s="44" t="s">
+      <c r="G162" s="44" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" s="45" t="s">
         <v>413</v>
       </c>
@@ -9493,14 +9712,14 @@
       <c r="D163" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E163" s="48" t="s">
+      <c r="F163" s="48" t="s">
         <v>419</v>
       </c>
-      <c r="F163" s="44" t="s">
+      <c r="G163" s="44" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="45" t="s">
         <v>413</v>
       </c>
@@ -9513,14 +9732,14 @@
       <c r="D164" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E164" s="47" t="s">
+      <c r="F164" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F164" s="44" t="s">
+      <c r="G164" s="44" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A165" s="51" t="s">
         <v>431</v>
       </c>
@@ -9533,14 +9752,14 @@
       <c r="D165" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E165" s="52" t="s">
+      <c r="F165" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="F165" s="169" t="s">
+      <c r="G165" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A166" s="51" t="s">
         <v>431</v>
       </c>
@@ -9553,14 +9772,14 @@
       <c r="D166" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E166" s="52" t="s">
+      <c r="F166" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="F166" s="169" t="s">
+      <c r="G166" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" s="51" t="s">
         <v>431</v>
       </c>
@@ -9573,14 +9792,14 @@
       <c r="D167" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E167" s="52" t="s">
+      <c r="F167" s="52" t="s">
         <v>441</v>
       </c>
-      <c r="F167" s="169" t="s">
+      <c r="G167" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A168" s="51" t="s">
         <v>431</v>
       </c>
@@ -9593,14 +9812,14 @@
       <c r="D168" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E168" s="52" t="s">
+      <c r="F168" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="F168" s="169" t="s">
+      <c r="G168" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="55" t="s">
         <v>445</v>
       </c>
@@ -9613,14 +9832,14 @@
       <c r="D169" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E169" s="56" t="s">
+      <c r="F169" s="56" t="s">
         <v>446</v>
       </c>
-      <c r="F169" s="54" t="s">
+      <c r="G169" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" s="55" t="s">
         <v>449</v>
       </c>
@@ -9633,14 +9852,14 @@
       <c r="D170" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E170" s="56" t="s">
+      <c r="F170" s="56" t="s">
         <v>452</v>
       </c>
-      <c r="F170" s="54" t="s">
+      <c r="G170" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A171" s="55" t="s">
         <v>449</v>
       </c>
@@ -9653,14 +9872,14 @@
       <c r="D171" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E171" s="56" t="s">
+      <c r="F171" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F171" s="54" t="s">
+      <c r="G171" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A172" s="57" t="s">
         <v>455</v>
       </c>
@@ -9673,14 +9892,14 @@
       <c r="D172" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E172" s="58" t="s">
+      <c r="F172" s="58" t="s">
         <v>457</v>
       </c>
-      <c r="F172" s="54" t="s">
+      <c r="G172" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="57" t="s">
         <v>455</v>
       </c>
@@ -9693,14 +9912,14 @@
       <c r="D173" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E173" s="58" t="s">
+      <c r="F173" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="F173" s="54" t="s">
+      <c r="G173" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A174" s="57" t="s">
         <v>455</v>
       </c>
@@ -9713,14 +9932,14 @@
       <c r="D174" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="E174" s="109" t="s">
+      <c r="F174" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F174" s="54" t="s">
+      <c r="G174" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A175" s="57" t="s">
         <v>455</v>
       </c>
@@ -9733,14 +9952,14 @@
       <c r="D175" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E175" s="109" t="s">
+      <c r="F175" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F175" s="54" t="s">
+      <c r="G175" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A176" s="57" t="s">
         <v>463</v>
       </c>
@@ -9753,14 +9972,14 @@
       <c r="D176" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E176" s="58" t="s">
+      <c r="F176" s="58" t="s">
         <v>457</v>
       </c>
-      <c r="F176" s="54" t="s">
+      <c r="G176" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A177" s="57" t="s">
         <v>463</v>
       </c>
@@ -9773,14 +9992,14 @@
       <c r="D177" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="E177" s="109" t="s">
+      <c r="F177" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F177" s="54" t="s">
+      <c r="G177" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A178" s="57" t="s">
         <v>463</v>
       </c>
@@ -9793,14 +10012,14 @@
       <c r="D178" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E178" s="109" t="s">
+      <c r="F178" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F178" s="54" t="s">
+      <c r="G178" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A179" s="61" t="s">
         <v>467</v>
       </c>
@@ -9813,14 +10032,14 @@
       <c r="D179" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E179" s="62" t="s">
+      <c r="F179" s="62" t="s">
         <v>457</v>
       </c>
-      <c r="F179" s="54" t="s">
+      <c r="G179" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A180" s="61" t="s">
         <v>467</v>
       </c>
@@ -9833,14 +10052,14 @@
       <c r="D180" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="E180" s="109" t="s">
+      <c r="F180" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F180" s="54" t="s">
+      <c r="G180" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A181" s="61" t="s">
         <v>467</v>
       </c>
@@ -9853,14 +10072,14 @@
       <c r="D181" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E181" s="109" t="s">
+      <c r="F181" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F181" s="54" t="s">
+      <c r="G181" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A182" s="61" t="s">
         <v>467</v>
       </c>
@@ -9873,14 +10092,14 @@
       <c r="D182" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E182" s="62" t="s">
+      <c r="F182" s="62" t="s">
         <v>469</v>
       </c>
-      <c r="F182" s="54" t="s">
+      <c r="G182" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" s="61" t="s">
         <v>467</v>
       </c>
@@ -9893,14 +10112,14 @@
       <c r="D183" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E183" s="62" t="s">
+      <c r="F183" s="62" t="s">
         <v>472</v>
       </c>
-      <c r="F183" s="54" t="s">
+      <c r="G183" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="61" t="s">
         <v>467</v>
       </c>
@@ -9913,14 +10132,14 @@
       <c r="D184" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E184" s="62" t="s">
+      <c r="F184" s="62" t="s">
         <v>475</v>
       </c>
-      <c r="F184" s="54" t="s">
+      <c r="G184" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A185" s="61" t="s">
         <v>467</v>
       </c>
@@ -9933,14 +10152,14 @@
       <c r="D185" s="63" t="s">
         <v>489</v>
       </c>
-      <c r="E185" s="109" t="s">
+      <c r="F185" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F185" s="54" t="s">
+      <c r="G185" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="61" t="s">
         <v>467</v>
       </c>
@@ -9953,14 +10172,14 @@
       <c r="D186" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E186" s="62" t="s">
+      <c r="F186" s="62" t="s">
         <v>480</v>
       </c>
-      <c r="F186" s="54" t="s">
+      <c r="G186" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A187" s="61" t="s">
         <v>481</v>
       </c>
@@ -9973,14 +10192,14 @@
       <c r="D187" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E187" s="62" t="s">
+      <c r="F187" s="62" t="s">
         <v>457</v>
       </c>
-      <c r="F187" s="54" t="s">
+      <c r="G187" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A188" s="61" t="s">
         <v>481</v>
       </c>
@@ -9993,14 +10212,14 @@
       <c r="D188" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="E188" s="109" t="s">
+      <c r="F188" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F188" s="54" t="s">
+      <c r="G188" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A189" s="61" t="s">
         <v>481</v>
       </c>
@@ -10013,14 +10232,14 @@
       <c r="D189" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E189" s="109" t="s">
+      <c r="F189" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F189" s="54" t="s">
+      <c r="G189" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="61" t="s">
         <v>481</v>
       </c>
@@ -10033,14 +10252,14 @@
       <c r="D190" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E190" s="62" t="s">
+      <c r="F190" s="62" t="s">
         <v>475</v>
       </c>
-      <c r="F190" s="54" t="s">
+      <c r="G190" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="61" t="s">
         <v>481</v>
       </c>
@@ -10053,14 +10272,14 @@
       <c r="D191" s="63" t="s">
         <v>489</v>
       </c>
-      <c r="E191" s="109" t="s">
+      <c r="F191" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F191" s="54" t="s">
+      <c r="G191" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A192" s="71" t="s">
         <v>490</v>
       </c>
@@ -10073,14 +10292,14 @@
       <c r="D192" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E192" s="72" t="s">
+      <c r="F192" s="72" t="s">
         <v>457</v>
       </c>
-      <c r="F192" s="54" t="s">
+      <c r="G192" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A193" s="71" t="s">
         <v>490</v>
       </c>
@@ -10093,14 +10312,14 @@
       <c r="D193" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="E193" s="109" t="s">
+      <c r="F193" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F193" s="54" t="s">
+      <c r="G193" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A194" s="71" t="s">
         <v>490</v>
       </c>
@@ -10113,14 +10332,14 @@
       <c r="D194" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E194" s="109" t="s">
+      <c r="F194" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F194" s="54" t="s">
+      <c r="G194" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A195" s="78" t="s">
         <v>492</v>
       </c>
@@ -10133,14 +10352,14 @@
       <c r="D195" s="63" t="s">
         <v>493</v>
       </c>
-      <c r="E195" s="76" t="s">
+      <c r="F195" s="76" t="s">
         <v>457</v>
       </c>
-      <c r="F195" s="54" t="s">
+      <c r="G195" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A196" s="78" t="s">
         <v>492</v>
       </c>
@@ -10153,14 +10372,14 @@
       <c r="D196" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="E196" s="109" t="s">
+      <c r="F196" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F196" s="54" t="s">
+      <c r="G196" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A197" s="78" t="s">
         <v>492</v>
       </c>
@@ -10173,14 +10392,14 @@
       <c r="D197" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E197" s="109" t="s">
+      <c r="F197" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F197" s="54" t="s">
+      <c r="G197" s="54" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A198" s="108" t="s">
         <v>533</v>
       </c>
@@ -10193,14 +10412,14 @@
       <c r="D198" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="E198" s="109" t="s">
+      <c r="F198" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F198" s="54" t="s">
+      <c r="G198" s="54" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A199" s="108" t="s">
         <v>533</v>
       </c>
@@ -10213,14 +10432,14 @@
       <c r="D199" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E199" s="109" t="s">
+      <c r="F199" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F199" s="54" t="s">
+      <c r="G199" s="54" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="108" t="s">
         <v>533</v>
       </c>
@@ -10233,14 +10452,14 @@
       <c r="D200" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="E200" s="109" t="s">
+      <c r="F200" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F200" s="54" t="s">
+      <c r="G200" s="54" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A201" s="108" t="s">
         <v>533</v>
       </c>
@@ -10253,14 +10472,17 @@
       <c r="D201" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E201" s="109" t="s">
+      <c r="E201" s="63" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F201" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F201" s="54" t="s">
+      <c r="G201" s="54" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A202" s="108" t="s">
         <v>533</v>
       </c>
@@ -10273,14 +10495,14 @@
       <c r="D202" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="E202" s="109" t="s">
+      <c r="F202" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F202" s="54" t="s">
+      <c r="G202" s="54" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A203" s="108" t="s">
         <v>533</v>
       </c>
@@ -10293,14 +10515,14 @@
       <c r="D203" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E203" s="109" t="s">
+      <c r="F203" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="F203" s="54" t="s">
+      <c r="G203" s="54" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="108" t="s">
         <v>533</v>
       </c>
@@ -10313,14 +10535,14 @@
       <c r="D204" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E204" s="109" t="s">
+      <c r="F204" s="109" t="s">
         <v>559</v>
       </c>
-      <c r="F204" s="54" t="s">
+      <c r="G204" s="54" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="108" t="s">
         <v>533</v>
       </c>
@@ -10333,14 +10555,14 @@
       <c r="D205" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E205" s="109" t="s">
+      <c r="F205" s="109" t="s">
         <v>559</v>
       </c>
-      <c r="F205" s="54" t="s">
+      <c r="G205" s="54" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A206" s="108" t="s">
         <v>533</v>
       </c>
@@ -10353,14 +10575,14 @@
       <c r="D206" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E206" s="109" t="s">
+      <c r="F206" s="109" t="s">
         <v>563</v>
       </c>
-      <c r="F206" s="54" t="s">
+      <c r="G206" s="54" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A207" s="108" t="s">
         <v>533</v>
       </c>
@@ -10373,14 +10595,14 @@
       <c r="D207" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E207" s="113" t="s">
+      <c r="F207" s="113" t="s">
         <v>594</v>
       </c>
-      <c r="F207" s="54" t="s">
+      <c r="G207" s="54" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A208" s="112" t="s">
         <v>566</v>
       </c>
@@ -10393,14 +10615,14 @@
       <c r="D208" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="E208" s="113" t="s">
+      <c r="F208" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="F208" s="114" t="s">
+      <c r="G208" s="114" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A209" s="112" t="s">
         <v>566</v>
       </c>
@@ -10413,14 +10635,14 @@
       <c r="D209" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E209" s="113" t="s">
+      <c r="F209" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="F209" s="114" t="s">
+      <c r="G209" s="114" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="112" t="s">
         <v>566</v>
       </c>
@@ -10433,14 +10655,14 @@
       <c r="D210" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="E210" s="113" t="s">
+      <c r="F210" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="F210" s="114" t="s">
+      <c r="G210" s="114" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="112" t="s">
         <v>566</v>
       </c>
@@ -10453,14 +10675,17 @@
       <c r="D211" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E211" s="113" t="s">
+      <c r="E211" s="63" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F211" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="F211" s="114" t="s">
+      <c r="G211" s="114" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A212" s="112" t="s">
         <v>566</v>
       </c>
@@ -10473,14 +10698,14 @@
       <c r="D212" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="E212" s="113" t="s">
+      <c r="F212" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="F212" s="114" t="s">
+      <c r="G212" s="114" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A213" s="112" t="s">
         <v>566</v>
       </c>
@@ -10493,14 +10718,14 @@
       <c r="D213" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E213" s="113" t="s">
+      <c r="F213" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="F213" s="114" t="s">
+      <c r="G213" s="114" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="112" t="s">
         <v>566</v>
       </c>
@@ -10513,14 +10738,14 @@
       <c r="D214" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E214" s="113" t="s">
+      <c r="F214" s="113" t="s">
         <v>559</v>
       </c>
-      <c r="F214" s="114" t="s">
+      <c r="G214" s="114" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="112" t="s">
         <v>566</v>
       </c>
@@ -10533,14 +10758,14 @@
       <c r="D215" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E215" s="113" t="s">
+      <c r="F215" s="113" t="s">
         <v>559</v>
       </c>
-      <c r="F215" s="114" t="s">
+      <c r="G215" s="114" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A216" s="112" t="s">
         <v>566</v>
       </c>
@@ -10553,14 +10778,14 @@
       <c r="D216" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E216" s="113" t="s">
+      <c r="F216" s="113" t="s">
         <v>593</v>
       </c>
-      <c r="F216" s="114" t="s">
+      <c r="G216" s="114" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A217" s="112" t="s">
         <v>566</v>
       </c>
@@ -10573,14 +10798,14 @@
       <c r="D217" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E217" s="113" t="s">
+      <c r="F217" s="113" t="s">
         <v>594</v>
       </c>
-      <c r="F217" s="114" t="s">
+      <c r="G217" s="114" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="112" t="s">
         <v>600</v>
       </c>
@@ -10593,14 +10818,14 @@
       <c r="D218" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E218" s="121" t="s">
+      <c r="F218" s="121" t="s">
         <v>603</v>
       </c>
-      <c r="F218" s="120" t="s">
+      <c r="G218" s="120" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A219" s="112" t="s">
         <v>600</v>
       </c>
@@ -10613,14 +10838,14 @@
       <c r="D219" s="63" t="s">
         <v>606</v>
       </c>
-      <c r="E219" s="121" t="s">
+      <c r="F219" s="121" t="s">
         <v>335</v>
       </c>
-      <c r="F219" s="120" t="s">
+      <c r="G219" s="120" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A220" s="112" t="s">
         <v>600</v>
       </c>
@@ -10633,14 +10858,14 @@
       <c r="D220" s="63" t="s">
         <v>634</v>
       </c>
-      <c r="E220" s="121" t="s">
+      <c r="F220" s="121" t="s">
         <v>609</v>
       </c>
-      <c r="F220" s="120" t="s">
+      <c r="G220" s="120" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A221" s="127" t="s">
         <v>648</v>
       </c>
@@ -10653,14 +10878,14 @@
       <c r="D221" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E221" s="128" t="s">
+      <c r="F221" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F221" s="129" t="s">
+      <c r="G221" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A222" s="127" t="s">
         <v>648</v>
       </c>
@@ -10673,14 +10898,14 @@
       <c r="D222" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E222" s="128" t="s">
+      <c r="F222" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F222" s="129" t="s">
+      <c r="G222" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A223" s="127" t="s">
         <v>648</v>
       </c>
@@ -10693,14 +10918,17 @@
       <c r="D223" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E223" s="128" t="s">
+      <c r="E223" s="63" t="s">
+        <v>995</v>
+      </c>
+      <c r="F223" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F223" s="129" t="s">
+      <c r="G223" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A224" s="127" t="s">
         <v>648</v>
       </c>
@@ -10713,14 +10941,17 @@
       <c r="D224" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E224" s="128" t="s">
+      <c r="E224" s="63" t="s">
+        <v>996</v>
+      </c>
+      <c r="F224" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F224" s="129" t="s">
+      <c r="G224" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A225" s="127" t="s">
         <v>648</v>
       </c>
@@ -10733,14 +10964,14 @@
       <c r="D225" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E225" s="128" t="s">
+      <c r="F225" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F225" s="129" t="s">
+      <c r="G225" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="127" t="s">
         <v>648</v>
       </c>
@@ -10753,14 +10984,14 @@
       <c r="D226" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="E226" s="128" t="s">
+      <c r="F226" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F226" s="129" t="s">
+      <c r="G226" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A227" s="127" t="s">
         <v>648</v>
       </c>
@@ -10773,14 +11004,14 @@
       <c r="D227" s="63" t="s">
         <v>621</v>
       </c>
-      <c r="E227" s="128" t="s">
+      <c r="F227" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F227" s="129" t="s">
+      <c r="G227" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="127" t="s">
         <v>648</v>
       </c>
@@ -10793,14 +11024,14 @@
       <c r="D228" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="E228" s="128" t="s">
+      <c r="F228" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F228" s="129" t="s">
+      <c r="G228" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A229" s="127" t="s">
         <v>648</v>
       </c>
@@ -10813,14 +11044,14 @@
       <c r="D229" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E229" s="128" t="s">
+      <c r="F229" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F229" s="129" t="s">
+      <c r="G229" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="127" t="s">
         <v>648</v>
       </c>
@@ -10833,14 +11064,17 @@
       <c r="D230" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E230" s="128" t="s">
+      <c r="E230" s="63" t="s">
+        <v>997</v>
+      </c>
+      <c r="F230" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="F230" s="129" t="s">
+      <c r="G230" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="127" t="s">
         <v>648</v>
       </c>
@@ -10853,14 +11087,14 @@
       <c r="D231" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E231" s="128" t="s">
+      <c r="F231" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="F231" s="129" t="s">
+      <c r="G231" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="127" t="s">
         <v>648</v>
       </c>
@@ -10873,14 +11107,14 @@
       <c r="D232" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E232" s="128" t="s">
+      <c r="F232" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="F232" s="129" t="s">
+      <c r="G232" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" s="127" t="s">
         <v>648</v>
       </c>
@@ -10893,14 +11127,14 @@
       <c r="D233" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E233" s="128" t="s">
+      <c r="F233" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="F233" s="129" t="s">
+      <c r="G233" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="127" t="s">
         <v>648</v>
       </c>
@@ -10913,14 +11147,15 @@
       <c r="D234" s="64" t="s">
         <v>642</v>
       </c>
-      <c r="E234" s="128" t="s">
+      <c r="E234" s="64"/>
+      <c r="F234" s="128" t="s">
         <v>672</v>
       </c>
-      <c r="F234" s="129" t="s">
+      <c r="G234" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" s="127" t="s">
         <v>648</v>
       </c>
@@ -10933,14 +11168,15 @@
       <c r="D235" s="64" t="s">
         <v>642</v>
       </c>
-      <c r="E235" s="128" t="s">
+      <c r="E235" s="64"/>
+      <c r="F235" s="128" t="s">
         <v>672</v>
       </c>
-      <c r="F235" s="129" t="s">
+      <c r="G235" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A236" s="127" t="s">
         <v>648</v>
       </c>
@@ -10953,14 +11189,17 @@
       <c r="D236" s="63" t="s">
         <v>614</v>
       </c>
-      <c r="E236" s="128" t="s">
+      <c r="E236" s="63" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F236" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F236" s="129" t="s">
+      <c r="G236" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A237" s="127" t="s">
         <v>648</v>
       </c>
@@ -10973,14 +11212,17 @@
       <c r="D237" s="63" t="s">
         <v>614</v>
       </c>
-      <c r="E237" s="128" t="s">
+      <c r="E237" s="63" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F237" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F237" s="129" t="s">
+      <c r="G237" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A238" s="127" t="s">
         <v>648</v>
       </c>
@@ -10993,14 +11235,17 @@
       <c r="D238" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E238" s="128" t="s">
+      <c r="E238" s="63" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F238" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F238" s="129" t="s">
+      <c r="G238" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A239" s="127" t="s">
         <v>648</v>
       </c>
@@ -11013,14 +11258,14 @@
       <c r="D239" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E239" s="128" t="s">
+      <c r="F239" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F239" s="129" t="s">
+      <c r="G239" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A240" s="127" t="s">
         <v>648</v>
       </c>
@@ -11033,14 +11278,14 @@
       <c r="D240" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E240" s="128" t="s">
+      <c r="F240" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="F240" s="129" t="s">
+      <c r="G240" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="127" t="s">
         <v>648</v>
       </c>
@@ -11053,14 +11298,14 @@
       <c r="D241" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E241" s="128" t="s">
+      <c r="F241" s="128" t="s">
         <v>686</v>
       </c>
-      <c r="F241" s="129" t="s">
+      <c r="G241" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="127" t="s">
         <v>648</v>
       </c>
@@ -11073,14 +11318,14 @@
       <c r="D242" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E242" s="128" t="s">
+      <c r="F242" s="128" t="s">
         <v>686</v>
       </c>
-      <c r="F242" s="129" t="s">
+      <c r="G242" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="127" t="s">
         <v>648</v>
       </c>
@@ -11093,14 +11338,17 @@
       <c r="D243" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E243" s="128" t="s">
+      <c r="E243" s="63" t="s">
+        <v>997</v>
+      </c>
+      <c r="F243" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="F243" s="129" t="s">
+      <c r="G243" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" s="127" t="s">
         <v>648</v>
       </c>
@@ -11113,14 +11361,14 @@
       <c r="D244" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E244" s="128" t="s">
+      <c r="F244" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="F244" s="129" t="s">
+      <c r="G244" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A245" s="127" t="s">
         <v>648</v>
       </c>
@@ -11133,14 +11381,14 @@
       <c r="D245" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E245" s="128" t="s">
+      <c r="F245" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="F245" s="129" t="s">
+      <c r="G245" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A246" s="127" t="s">
         <v>648</v>
       </c>
@@ -11153,14 +11401,14 @@
       <c r="D246" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E246" s="128" t="s">
+      <c r="F246" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="F246" s="129" t="s">
+      <c r="G246" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A247" s="127" t="s">
         <v>648</v>
       </c>
@@ -11173,14 +11421,14 @@
       <c r="D247" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E247" s="128" t="s">
+      <c r="F247" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="F247" s="129" t="s">
+      <c r="G247" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="127" t="s">
         <v>648</v>
       </c>
@@ -11193,14 +11441,14 @@
       <c r="D248" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="E248" s="128" t="s">
+      <c r="F248" s="128" t="s">
         <v>701</v>
       </c>
-      <c r="F248" s="129" t="s">
+      <c r="G248" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A249" s="127" t="s">
         <v>648</v>
       </c>
@@ -11213,14 +11461,14 @@
       <c r="D249" s="63" t="s">
         <v>606</v>
       </c>
-      <c r="E249" s="128" t="s">
+      <c r="F249" s="128" t="s">
         <v>704</v>
       </c>
-      <c r="F249" s="129" t="s">
+      <c r="G249" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A250" s="127" t="s">
         <v>648</v>
       </c>
@@ -11233,14 +11481,14 @@
       <c r="D250" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E250" s="128" t="s">
+      <c r="F250" s="128" t="s">
         <v>707</v>
       </c>
-      <c r="F250" s="129" t="s">
+      <c r="G250" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A251" s="127" t="s">
         <v>648</v>
       </c>
@@ -11253,14 +11501,14 @@
       <c r="D251" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E251" s="128" t="s">
+      <c r="F251" s="128" t="s">
         <v>707</v>
       </c>
-      <c r="F251" s="129" t="s">
+      <c r="G251" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="127" t="s">
         <v>648</v>
       </c>
@@ -11273,14 +11521,14 @@
       <c r="D252" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="E252" s="128" t="s">
+      <c r="F252" s="128" t="s">
         <v>707</v>
       </c>
-      <c r="F252" s="129" t="s">
+      <c r="G252" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" s="127" t="s">
         <v>648</v>
       </c>
@@ -11293,14 +11541,14 @@
       <c r="D253" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E253" s="128" t="s">
+      <c r="F253" s="128" t="s">
         <v>713</v>
       </c>
-      <c r="F253" s="129" t="s">
+      <c r="G253" s="129" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A254" s="132" t="s">
         <v>718</v>
       </c>
@@ -11313,14 +11561,14 @@
       <c r="D254" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E254" s="133" t="s">
+      <c r="F254" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="F254" s="131" t="s">
+      <c r="G254" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A255" s="132" t="s">
         <v>718</v>
       </c>
@@ -11333,14 +11581,14 @@
       <c r="D255" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E255" s="133" t="s">
+      <c r="F255" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="F255" s="131" t="s">
+      <c r="G255" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A256" s="132" t="s">
         <v>718</v>
       </c>
@@ -11353,14 +11601,17 @@
       <c r="D256" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E256" s="133" t="s">
+      <c r="E256" s="63" t="s">
+        <v>995</v>
+      </c>
+      <c r="F256" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="F256" s="131" t="s">
+      <c r="G256" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A257" s="132" t="s">
         <v>718</v>
       </c>
@@ -11373,14 +11624,17 @@
       <c r="D257" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E257" s="133" t="s">
+      <c r="E257" s="63" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F257" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="F257" s="131" t="s">
+      <c r="G257" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A258" s="132" t="s">
         <v>718</v>
       </c>
@@ -11393,14 +11647,14 @@
       <c r="D258" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E258" s="133" t="s">
+      <c r="F258" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="F258" s="131" t="s">
+      <c r="G258" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A259" s="132" t="s">
         <v>718</v>
       </c>
@@ -11413,14 +11667,14 @@
       <c r="D259" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E259" s="133" t="s">
+      <c r="F259" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="F259" s="131" t="s">
+      <c r="G259" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A260" s="132" t="s">
         <v>718</v>
       </c>
@@ -11433,14 +11687,14 @@
       <c r="D260" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="E260" s="133" t="s">
+      <c r="F260" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="F260" s="131" t="s">
+      <c r="G260" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A261" s="132" t="s">
         <v>718</v>
       </c>
@@ -11453,14 +11707,14 @@
       <c r="D261" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E261" s="133" t="s">
+      <c r="F261" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="F261" s="131" t="s">
+      <c r="G261" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A262" s="132" t="s">
         <v>718</v>
       </c>
@@ -11473,14 +11727,17 @@
       <c r="D262" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E262" s="133" t="s">
+      <c r="E262" s="63" t="s">
+        <v>995</v>
+      </c>
+      <c r="F262" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="F262" s="131" t="s">
+      <c r="G262" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A263" s="132" t="s">
         <v>718</v>
       </c>
@@ -11493,14 +11750,14 @@
       <c r="D263" s="63" t="s">
         <v>606</v>
       </c>
-      <c r="E263" s="133" t="s">
+      <c r="F263" s="133" t="s">
         <v>335</v>
       </c>
-      <c r="F263" s="131" t="s">
+      <c r="G263" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" s="132" t="s">
         <v>718</v>
       </c>
@@ -11513,14 +11770,14 @@
       <c r="D264" s="63" t="s">
         <v>737</v>
       </c>
-      <c r="E264" s="135" t="s">
+      <c r="F264" s="135" t="s">
         <v>738</v>
       </c>
-      <c r="F264" s="131" t="s">
+      <c r="G264" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" s="132" t="s">
         <v>718</v>
       </c>
@@ -11533,14 +11790,14 @@
       <c r="D265" s="63" t="s">
         <v>737</v>
       </c>
-      <c r="E265" s="135" t="s">
+      <c r="F265" s="135" t="s">
         <v>738</v>
       </c>
-      <c r="F265" s="131" t="s">
+      <c r="G265" s="131" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A266" s="136" t="s">
         <v>744</v>
       </c>
@@ -11553,14 +11810,17 @@
       <c r="D266" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E266" s="135" t="s">
+      <c r="E266" s="63" t="s">
+        <v>998</v>
+      </c>
+      <c r="F266" s="135" t="s">
         <v>754</v>
       </c>
-      <c r="F266" s="131" t="s">
+      <c r="G266" s="131" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A267" s="136" t="s">
         <v>744</v>
       </c>
@@ -11573,14 +11833,14 @@
       <c r="D267" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E267" s="135" t="s">
+      <c r="F267" s="135" t="s">
         <v>754</v>
       </c>
-      <c r="F267" s="131" t="s">
+      <c r="G267" s="131" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="136" t="s">
         <v>744</v>
       </c>
@@ -11593,14 +11853,14 @@
       <c r="D268" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E268" s="135" t="s">
+      <c r="F268" s="135" t="s">
         <v>754</v>
       </c>
-      <c r="F268" s="131" t="s">
+      <c r="G268" s="131" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A269" s="136" t="s">
         <v>744</v>
       </c>
@@ -11613,14 +11873,14 @@
       <c r="D269" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E269" s="135" t="s">
+      <c r="F269" s="135" t="s">
         <v>754</v>
       </c>
-      <c r="F269" s="131" t="s">
+      <c r="G269" s="131" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="138" t="s">
         <v>771</v>
       </c>
@@ -11633,14 +11893,14 @@
       <c r="D270" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E270" s="139" t="s">
+      <c r="F270" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="F270" s="131" t="s">
+      <c r="G270" s="131" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="138" t="s">
         <v>771</v>
       </c>
@@ -11653,14 +11913,14 @@
       <c r="D271" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E271" s="139" t="s">
+      <c r="F271" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="F271" s="131" t="s">
+      <c r="G271" s="131" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A272" s="138" t="s">
         <v>771</v>
       </c>
@@ -11673,14 +11933,14 @@
       <c r="D272" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E272" s="139" t="s">
+      <c r="F272" s="139" t="s">
         <v>778</v>
       </c>
-      <c r="F272" s="131" t="s">
+      <c r="G272" s="131" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A273" s="138" t="s">
         <v>771</v>
       </c>
@@ -11693,14 +11953,14 @@
       <c r="D273" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E273" s="139" t="s">
+      <c r="F273" s="139" t="s">
         <v>778</v>
       </c>
-      <c r="F273" s="131" t="s">
+      <c r="G273" s="131" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A274" s="138" t="s">
         <v>771</v>
       </c>
@@ -11713,14 +11973,14 @@
       <c r="D274" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="E274" s="139" t="s">
+      <c r="F274" s="139" t="s">
         <v>783</v>
       </c>
-      <c r="F274" s="131" t="s">
+      <c r="G274" s="131" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A275" s="138" t="s">
         <v>771</v>
       </c>
@@ -11733,14 +11993,14 @@
       <c r="D275" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="E275" s="139" t="s">
+      <c r="F275" s="139" t="s">
         <v>783</v>
       </c>
-      <c r="F275" s="131" t="s">
+      <c r="G275" s="131" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="276" spans="1:6" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="143" t="s">
         <v>786</v>
       </c>
@@ -11753,14 +12013,15 @@
       <c r="D276" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E276" s="144" t="s">
+      <c r="E276" s="63"/>
+      <c r="F276" s="144" t="s">
         <v>789</v>
       </c>
-      <c r="F276" s="43" t="s">
+      <c r="G276" s="43" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="143" t="s">
         <v>786</v>
       </c>
@@ -11773,14 +12034,14 @@
       <c r="D277" s="63" t="s">
         <v>640</v>
       </c>
-      <c r="E277" s="144" t="s">
+      <c r="F277" s="144" t="s">
         <v>791</v>
       </c>
-      <c r="F277" s="43" t="s">
+      <c r="G277" s="43" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="143" t="s">
         <v>786</v>
       </c>
@@ -11793,14 +12054,14 @@
       <c r="D278" s="63" t="s">
         <v>640</v>
       </c>
-      <c r="E278" s="144" t="s">
+      <c r="F278" s="144" t="s">
         <v>791</v>
       </c>
-      <c r="F278" s="43" t="s">
+      <c r="G278" s="43" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="143" t="s">
         <v>795</v>
       </c>
@@ -11813,14 +12074,14 @@
       <c r="D279" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E279" s="144" t="s">
+      <c r="F279" s="144" t="s">
         <v>797</v>
       </c>
-      <c r="F279" s="169" t="s">
+      <c r="G279" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A280" s="143" t="s">
         <v>795</v>
       </c>
@@ -11833,14 +12094,14 @@
       <c r="D280" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="E280" s="144" t="s">
+      <c r="F280" s="144" t="s">
         <v>798</v>
       </c>
-      <c r="F280" s="169" t="s">
+      <c r="G280" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" s="147" t="s">
         <v>818</v>
       </c>
@@ -11853,14 +12114,15 @@
       <c r="D281" s="64" t="s">
         <v>637</v>
       </c>
-      <c r="E281" s="148" t="s">
+      <c r="E281" s="64"/>
+      <c r="F281" s="148" t="s">
         <v>819</v>
       </c>
-      <c r="F281" s="169" t="s">
+      <c r="G281" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" s="147" t="s">
         <v>818</v>
       </c>
@@ -11873,14 +12135,15 @@
       <c r="D282" s="64" t="s">
         <v>491</v>
       </c>
-      <c r="E282" s="148" t="s">
+      <c r="E282" s="64"/>
+      <c r="F282" s="148" t="s">
         <v>819</v>
       </c>
-      <c r="F282" s="169" t="s">
+      <c r="G282" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A283" s="147" t="s">
         <v>823</v>
       </c>
@@ -11893,14 +12156,14 @@
       <c r="D283" s="63" t="s">
         <v>634</v>
       </c>
-      <c r="E283" s="148" t="s">
+      <c r="F283" s="148" t="s">
         <v>819</v>
       </c>
-      <c r="F283" s="169" t="s">
+      <c r="G283" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A284" s="150" t="s">
         <v>827</v>
       </c>
@@ -11913,14 +12176,14 @@
       <c r="D284" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="E284" s="151" t="s">
+      <c r="F284" s="151" t="s">
         <v>830</v>
       </c>
-      <c r="F284" s="169" t="s">
+      <c r="G284" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="285" spans="1:6" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A285" s="150" t="s">
         <v>832</v>
       </c>
@@ -11933,14 +12196,15 @@
       <c r="D285" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E285" s="151" t="s">
+      <c r="E285" s="63"/>
+      <c r="F285" s="151" t="s">
         <v>833</v>
       </c>
-      <c r="F285" s="169" t="s">
+      <c r="G285" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" s="150" t="s">
         <v>832</v>
       </c>
@@ -11953,14 +12217,14 @@
       <c r="D286" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="E286" s="151" t="s">
+      <c r="F286" s="151" t="s">
         <v>838</v>
       </c>
-      <c r="F286" s="169" t="s">
+      <c r="G286" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A287" s="150" t="s">
         <v>832</v>
       </c>
@@ -11973,14 +12237,14 @@
       <c r="D287" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E287" s="151" t="s">
+      <c r="F287" s="151" t="s">
         <v>196</v>
       </c>
-      <c r="F287" s="169" t="s">
+      <c r="G287" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>845</v>
       </c>
@@ -11993,14 +12257,14 @@
       <c r="D288" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="E288" s="172" t="s">
+      <c r="F288" s="172" t="s">
         <v>848</v>
       </c>
-      <c r="F288" s="169" t="s">
+      <c r="G288" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>850</v>
       </c>
@@ -12013,14 +12277,14 @@
       <c r="D289" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E289" s="176" t="s">
+      <c r="F289" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="F289" s="169" t="s">
+      <c r="G289" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>850</v>
       </c>
@@ -12033,14 +12297,14 @@
       <c r="D290" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E290" s="176" t="s">
+      <c r="F290" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="F290" s="169" t="s">
+      <c r="G290" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>850</v>
       </c>
@@ -12053,14 +12317,14 @@
       <c r="D291" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E291" s="176" t="s">
+      <c r="F291" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="F291" s="169" t="s">
+      <c r="G291" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>850</v>
       </c>
@@ -12073,14 +12337,14 @@
       <c r="D292" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E292" s="176" t="s">
+      <c r="F292" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="F292" s="169" t="s">
+      <c r="G292" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>850</v>
       </c>
@@ -12093,14 +12357,14 @@
       <c r="D293" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E293" s="176" t="s">
+      <c r="F293" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="F293" s="169" t="s">
+      <c r="G293" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>850</v>
       </c>
@@ -12113,14 +12377,14 @@
       <c r="D294" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E294" s="176" t="s">
+      <c r="F294" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="F294" s="169" t="s">
+      <c r="G294" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A295" s="178" t="s">
         <v>858</v>
       </c>
@@ -12133,14 +12397,14 @@
       <c r="D295" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E295" s="179" t="s">
+      <c r="F295" s="179" t="s">
         <v>196</v>
       </c>
-      <c r="F295" s="169" t="s">
+      <c r="G295" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A296" s="178" t="s">
         <v>858</v>
       </c>
@@ -12153,14 +12417,14 @@
       <c r="D296" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E296" s="179" t="s">
+      <c r="F296" s="179" t="s">
         <v>196</v>
       </c>
-      <c r="F296" s="169" t="s">
+      <c r="G296" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>867</v>
       </c>
@@ -12173,14 +12437,14 @@
       <c r="D297" s="63" t="s">
         <v>868</v>
       </c>
-      <c r="E297" s="179" t="s">
+      <c r="F297" s="179" t="s">
         <v>870</v>
       </c>
-      <c r="F297" s="169" t="s">
+      <c r="G297" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>867</v>
       </c>
@@ -12193,14 +12457,14 @@
       <c r="D298" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E298" s="179" t="s">
+      <c r="F298" s="179" t="s">
         <v>873</v>
       </c>
-      <c r="F298" s="169" t="s">
+      <c r="G298" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>867</v>
       </c>
@@ -12213,14 +12477,14 @@
       <c r="D299" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E299" s="179" t="s">
+      <c r="F299" s="179" t="s">
         <v>873</v>
       </c>
-      <c r="F299" s="169" t="s">
+      <c r="G299" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>867</v>
       </c>
@@ -12233,14 +12497,14 @@
       <c r="D300" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E300" s="179" t="s">
+      <c r="F300" s="179" t="s">
         <v>873</v>
       </c>
-      <c r="F300" s="169" t="s">
+      <c r="G300" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>867</v>
       </c>
@@ -12253,14 +12517,14 @@
       <c r="D301" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E301" s="179" t="s">
+      <c r="F301" s="179" t="s">
         <v>873</v>
       </c>
-      <c r="F301" s="169" t="s">
+      <c r="G301" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>867</v>
       </c>
@@ -12273,14 +12537,14 @@
       <c r="D302" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E302" s="179" t="s">
+      <c r="F302" s="179" t="s">
         <v>873</v>
       </c>
-      <c r="F302" s="169" t="s">
+      <c r="G302" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>867</v>
       </c>
@@ -12293,14 +12557,14 @@
       <c r="D303" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E303" s="179" t="s">
+      <c r="F303" s="179" t="s">
         <v>873</v>
       </c>
-      <c r="F303" s="169" t="s">
+      <c r="G303" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>867</v>
       </c>
@@ -12313,14 +12577,14 @@
       <c r="D304" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E304" s="179" t="s">
+      <c r="F304" s="179" t="s">
         <v>873</v>
       </c>
-      <c r="F304" s="169" t="s">
+      <c r="G304" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>867</v>
       </c>
@@ -12333,14 +12597,14 @@
       <c r="D305" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E305" s="179" t="s">
+      <c r="F305" s="179" t="s">
         <v>873</v>
       </c>
-      <c r="F305" s="169" t="s">
+      <c r="G305" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>867</v>
       </c>
@@ -12353,14 +12617,14 @@
       <c r="D306" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="E306" s="179" t="s">
+      <c r="F306" s="179" t="s">
         <v>888</v>
       </c>
-      <c r="F306" s="169" t="s">
+      <c r="G306" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>867</v>
       </c>
@@ -12373,14 +12637,14 @@
       <c r="D307" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E307" s="179" t="s">
+      <c r="F307" s="179" t="s">
         <v>888</v>
       </c>
-      <c r="F307" s="169" t="s">
+      <c r="G307" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
         <v>867</v>
       </c>
@@ -12393,14 +12657,14 @@
       <c r="D308" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E308" s="179" t="s">
+      <c r="F308" s="179" t="s">
         <v>888</v>
       </c>
-      <c r="F308" s="169" t="s">
+      <c r="G308" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>867</v>
       </c>
@@ -12413,14 +12677,14 @@
       <c r="D309" s="63" t="s">
         <v>868</v>
       </c>
-      <c r="E309" s="179" t="s">
+      <c r="F309" s="179" t="s">
         <v>895</v>
       </c>
-      <c r="F309" s="169" t="s">
+      <c r="G309" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>896</v>
       </c>
@@ -12433,14 +12697,14 @@
       <c r="D310" s="63" t="s">
         <v>562</v>
       </c>
-      <c r="E310" s="183" t="s">
+      <c r="F310" s="183" t="s">
         <v>898</v>
       </c>
-      <c r="F310" s="169" t="s">
+      <c r="G310" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>896</v>
       </c>
@@ -12453,14 +12717,17 @@
       <c r="D311" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E311" s="183" t="s">
+      <c r="E311" s="63" t="s">
+        <v>995</v>
+      </c>
+      <c r="F311" s="183" t="s">
         <v>898</v>
       </c>
-      <c r="F311" s="169" t="s">
+      <c r="G311" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A312" s="182" t="s">
         <v>904</v>
       </c>
@@ -12473,14 +12740,14 @@
       <c r="D312" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E312" s="183" t="s">
+      <c r="F312" s="183" t="s">
         <v>905</v>
       </c>
-      <c r="F312" s="169" t="s">
+      <c r="G312" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A313" s="182" t="s">
         <v>904</v>
       </c>
@@ -12493,14 +12760,14 @@
       <c r="D313" s="63" t="s">
         <v>613</v>
       </c>
-      <c r="E313" s="183" t="s">
+      <c r="F313" s="183" t="s">
         <v>905</v>
       </c>
-      <c r="F313" s="169" t="s">
+      <c r="G313" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A314" s="185" t="s">
         <v>912</v>
       </c>
@@ -12513,14 +12780,14 @@
       <c r="D314" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E314" s="186" t="s">
+      <c r="F314" s="186" t="s">
         <v>915</v>
       </c>
-      <c r="F314" s="169" t="s">
+      <c r="G314" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A315" s="187" t="s">
         <v>916</v>
       </c>
@@ -12533,14 +12800,14 @@
       <c r="D315" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E315" s="188" t="s">
+      <c r="F315" s="188" t="s">
         <v>919</v>
       </c>
-      <c r="F315" s="169" t="s">
+      <c r="G315" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A316" s="187" t="s">
         <v>924</v>
       </c>
@@ -12553,14 +12820,14 @@
       <c r="D316" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="E316" s="188" t="s">
+      <c r="F316" s="188" t="s">
         <v>926</v>
       </c>
-      <c r="F316" s="169" t="s">
+      <c r="G316" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A317" s="187" t="s">
         <v>924</v>
       </c>
@@ -12573,14 +12840,14 @@
       <c r="D317" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E317" s="188" t="s">
+      <c r="F317" s="188" t="s">
         <v>926</v>
       </c>
-      <c r="F317" s="169" t="s">
+      <c r="G317" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A318" s="187" t="s">
         <v>924</v>
       </c>
@@ -12593,14 +12860,14 @@
       <c r="D318" s="63" t="s">
         <v>620</v>
       </c>
-      <c r="E318" s="188" t="s">
+      <c r="F318" s="188" t="s">
         <v>926</v>
       </c>
-      <c r="F318" s="169" t="s">
+      <c r="G318" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A319" s="187" t="s">
         <v>924</v>
       </c>
@@ -12613,14 +12880,14 @@
       <c r="D319" s="63" t="s">
         <v>554</v>
       </c>
-      <c r="E319" s="188" t="s">
+      <c r="F319" s="188" t="s">
         <v>932</v>
       </c>
-      <c r="F319" s="169" t="s">
+      <c r="G319" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="191" t="s">
         <v>936</v>
       </c>
@@ -12633,14 +12900,17 @@
       <c r="D320" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="E320" s="192" t="s">
+      <c r="E320" s="63" t="s">
+        <v>999</v>
+      </c>
+      <c r="F320" s="192" t="s">
         <v>938</v>
       </c>
-      <c r="F320" s="169" t="s">
+      <c r="G320" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="195" t="s">
         <v>946</v>
       </c>
@@ -12653,14 +12923,14 @@
       <c r="D321" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E321" s="196" t="s">
+      <c r="F321" s="196" t="s">
         <v>944</v>
       </c>
-      <c r="F321" s="169" t="s">
+      <c r="G321" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="195" t="s">
         <v>946</v>
       </c>
@@ -12673,14 +12943,14 @@
       <c r="D322" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E322" s="196" t="s">
+      <c r="F322" s="196" t="s">
         <v>944</v>
       </c>
-      <c r="F322" s="169" t="s">
+      <c r="G322" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A323" s="195" t="s">
         <v>946</v>
       </c>
@@ -12693,14 +12963,14 @@
       <c r="D323" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E323" s="196" t="s">
+      <c r="F323" s="196" t="s">
         <v>948</v>
       </c>
-      <c r="F323" s="169" t="s">
+      <c r="G323" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="195" t="s">
         <v>949</v>
       </c>
@@ -12713,14 +12983,14 @@
       <c r="D324" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E324" s="196" t="s">
+      <c r="F324" s="196" t="s">
         <v>940</v>
       </c>
-      <c r="F324" s="169" t="s">
+      <c r="G324" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="195" t="s">
         <v>953</v>
       </c>
@@ -12733,14 +13003,14 @@
       <c r="D325" s="63" t="s">
         <v>868</v>
       </c>
-      <c r="E325" s="196" t="s">
+      <c r="F325" s="196" t="s">
         <v>955</v>
       </c>
-      <c r="F325" s="169" t="s">
+      <c r="G325" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A326" s="195" t="s">
         <v>953</v>
       </c>
@@ -12753,14 +13023,14 @@
       <c r="D326" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E326" s="196" t="s">
+      <c r="F326" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F326" s="169" t="s">
+      <c r="G326" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A327" s="195" t="s">
         <v>953</v>
       </c>
@@ -12773,14 +13043,14 @@
       <c r="D327" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E327" s="196" t="s">
+      <c r="F327" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F327" s="169" t="s">
+      <c r="G327" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="195" t="s">
         <v>953</v>
       </c>
@@ -12793,14 +13063,14 @@
       <c r="D328" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E328" s="196" t="s">
+      <c r="F328" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F328" s="169" t="s">
+      <c r="G328" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="195" t="s">
         <v>953</v>
       </c>
@@ -12813,14 +13083,14 @@
       <c r="D329" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E329" s="196" t="s">
+      <c r="F329" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F329" s="169" t="s">
+      <c r="G329" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A330" s="195" t="s">
         <v>953</v>
       </c>
@@ -12833,14 +13103,14 @@
       <c r="D330" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E330" s="196" t="s">
+      <c r="F330" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F330" s="169" t="s">
+      <c r="G330" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A331" s="195" t="s">
         <v>953</v>
       </c>
@@ -12853,14 +13123,14 @@
       <c r="D331" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E331" s="196" t="s">
+      <c r="F331" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F331" s="169" t="s">
+      <c r="G331" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A332" s="195" t="s">
         <v>953</v>
       </c>
@@ -12873,14 +13143,14 @@
       <c r="D332" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E332" s="196" t="s">
+      <c r="F332" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F332" s="169" t="s">
+      <c r="G332" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A333" s="195" t="s">
         <v>953</v>
       </c>
@@ -12893,14 +13163,14 @@
       <c r="D333" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E333" s="196" t="s">
+      <c r="F333" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F333" s="169" t="s">
+      <c r="G333" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A334" s="195" t="s">
         <v>953</v>
       </c>
@@ -12913,14 +13183,14 @@
       <c r="D334" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E334" s="196" t="s">
+      <c r="F334" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F334" s="169" t="s">
+      <c r="G334" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A335" s="195" t="s">
         <v>953</v>
       </c>
@@ -12933,14 +13203,14 @@
       <c r="D335" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E335" s="196" t="s">
+      <c r="F335" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F335" s="169" t="s">
+      <c r="G335" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="195" t="s">
         <v>953</v>
       </c>
@@ -12953,14 +13223,14 @@
       <c r="D336" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E336" s="196" t="s">
+      <c r="F336" s="196" t="s">
         <v>196</v>
       </c>
-      <c r="F336" s="169" t="s">
+      <c r="G336" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="195" t="s">
         <v>953</v>
       </c>
@@ -12973,14 +13243,14 @@
       <c r="D337" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E337" s="196" t="s">
+      <c r="F337" s="196" t="s">
         <v>196</v>
       </c>
-      <c r="F337" s="169" t="s">
+      <c r="G337" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="195" t="s">
         <v>953</v>
       </c>
@@ -12993,14 +13263,14 @@
       <c r="D338" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E338" s="196" t="s">
+      <c r="F338" s="196" t="s">
         <v>196</v>
       </c>
-      <c r="F338" s="169" t="s">
+      <c r="G338" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="195" t="s">
         <v>953</v>
       </c>
@@ -13013,14 +13283,14 @@
       <c r="D339" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="E339" s="196" t="s">
+      <c r="F339" s="196" t="s">
         <v>196</v>
       </c>
-      <c r="F339" s="169" t="s">
+      <c r="G339" s="169" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A340" s="199" t="s">
         <v>978</v>
       </c>
@@ -13033,14 +13303,14 @@
       <c r="D340" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="E340" s="200" t="s">
+      <c r="F340" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="F340" s="198" t="s">
+      <c r="G340" s="198" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A341" s="199" t="s">
         <v>978</v>
       </c>
@@ -13053,14 +13323,14 @@
       <c r="D341" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E341" s="200" t="s">
+      <c r="F341" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="F341" s="198" t="s">
+      <c r="G341" s="198" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A342" s="203" t="s">
         <v>982</v>
       </c>
@@ -13073,14 +13343,14 @@
       <c r="D342" s="63" t="s">
         <v>615</v>
       </c>
-      <c r="E342" s="200" t="s">
+      <c r="F342" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="F342" s="198" t="s">
+      <c r="G342" s="198" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="207" t="s">
         <v>983</v>
       </c>
@@ -13093,14 +13363,15 @@
       <c r="D343" s="63" t="s">
         <v>986</v>
       </c>
-      <c r="E343" s="200" t="s">
+      <c r="E343" s="63"/>
+      <c r="F343" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="F343" s="201" t="s">
+      <c r="G343" s="201" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="207" t="s">
         <v>983</v>
       </c>
@@ -13113,14 +13384,14 @@
       <c r="D344" s="63" t="s">
         <v>640</v>
       </c>
-      <c r="E344" s="200" t="s">
+      <c r="F344" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="F344" s="201" t="s">
+      <c r="G344" s="201" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A345" s="207" t="s">
         <v>983</v>
       </c>
@@ -13133,14 +13404,14 @@
       <c r="D345" s="63" t="s">
         <v>986</v>
       </c>
-      <c r="E345" s="208" t="s">
+      <c r="F345" s="208" t="s">
         <v>397</v>
       </c>
-      <c r="F345" s="201" t="s">
+      <c r="G345" s="201" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A346" s="207" t="s">
         <v>983</v>
       </c>
@@ -13153,14 +13424,15 @@
       <c r="D346" s="63" t="s">
         <v>986</v>
       </c>
-      <c r="E346" s="208" t="s">
+      <c r="F346" s="208" t="s">
         <v>397</v>
       </c>
-      <c r="F346" s="201" t="s">
+      <c r="G346" s="201" t="s">
         <v>748</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G346" xr:uid="{A1D93740-6A52-D84D-8ABE-D4A8008BFB2A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -13171,7 +13443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
